--- a/src/main/resources/Byte0-Byte7.xlsx
+++ b/src/main/resources/Byte0-Byte7.xlsx
@@ -6750,10 +6750,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -6769,31 +6769,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6806,8 +6783,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6822,8 +6838,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6837,62 +6875,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6908,6 +6893,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6928,19 +6928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6958,13 +6958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6982,19 +6976,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7006,37 +7048,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7054,55 +7090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7113,6 +7113,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7151,21 +7166,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7218,148 +7218,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7696,8 +7696,8 @@
   <sheetPr/>
   <dimension ref="A1:DC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -8019,7 +8019,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="true"/>
     <row r="3" s="1" customFormat="true" ht="12.75" spans="1:82">
       <c r="A3" s="2" t="s">
         <v>1</v>
